--- a/final report/precisionRate_boost.xlsx
+++ b/final report/precisionRate_boost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\中正\大數據與資料分析\期末報告資料處理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4185D68E-A055-495E-A7F5-91F02E84F4D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E7F37-D39D-4941-A7C1-C96D84EBF413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="19780" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_boost" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,78 @@
     <sheet name="通訊" sheetId="5" r:id="rId5"/>
     <sheet name="統整" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">precisionRate_boost!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_boost!$C$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_boost!$G$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_boost!$H$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">precisionRate_boost!$I$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">precisionRate_boost!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">precisionRate_boost!$C$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">precisionRate_boost!$C$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">precisionRate_boost!$G$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">precisionRate_boost!$H$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">precisionRate_boost!$I$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">precisionRate_boost!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">precisionRate_boost!$C$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">precisionRate_boost!$G$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">precisionRate_boost!$H$1</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">precisionRate_boost!$I$1</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">precisionRate_boost!$B$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">precisionRate_boost!$G$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">precisionRate_boost!$C$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">precisionRate_boost!$G$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">precisionRate_boost!$H$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">precisionRate_boost!$B$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">precisionRate_boost!$C$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">precisionRate_boost!$G$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">precisionRate_boost!$H$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">precisionRate_boost!$H$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_boost!$B$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -184,12 +255,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -197,7 +268,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -205,7 +276,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -214,7 +285,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -223,7 +294,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -232,7 +303,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -240,7 +311,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -248,7 +319,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -256,7 +327,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -264,7 +335,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -273,7 +344,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -282,7 +353,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -290,7 +361,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -299,7 +370,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -307,7 +378,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -316,7 +387,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -325,7 +396,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -333,14 +404,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -348,7 +419,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1E1E1E"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -826,9 +897,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -844,53 +912,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -905,8 +976,1567 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.30</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.32</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.34</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.36</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.38</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Boosting</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Boosting</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{5708D22C-2AF9-FD4A-81AB-834F7571D0EB}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.29</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C93A764B-46FA-2843-AEBE-E8B8EFBAEDE9}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.31</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F8F2EC4B-050C-7242-B1AF-3F7DDD0F5842}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.33</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B42A3685-F08D-2F4F-89F3-3FCF27138B43}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.35</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{09515F43-7185-C347-89B5-664AE2FB3815}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.5"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.49</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.51</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.53</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.55</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.56</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Boosting</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Boosting</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{5708D22C-2AF9-FD4A-81AB-834F7571D0EB}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C93A764B-46FA-2843-AEBE-E8B8EFBAEDE9}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.50</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F8F2EC4B-050C-7242-B1AF-3F7DDD0F5842}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.52</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B42A3685-F08D-2F4F-89F3-3FCF27138B43}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.54</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{09515F43-7185-C347-89B5-664AE2FB3815}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.5"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F0DE65-D894-479E-25B3-2C22EFC78E5C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6711950" y="3403600"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA96BAFB-96F7-634C-AD85-E12AD3A4CD1C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5422900" y="2628900"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1201,16 +2831,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:X47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" activeCellId="4" sqref="B1:B41 C1:C41 G1:G41 H1:H41 I1:I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +2908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1210</v>
       </c>
@@ -1346,7 +2976,7 @@
         <v>0.70196025937486395</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1231</v>
       </c>
@@ -1414,7 +3044,7 @@
         <v>0.58735823891283701</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2344</v>
       </c>
@@ -1482,7 +3112,7 @@
         <v>0.65763122963767395</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2449</v>
       </c>
@@ -1550,7 +3180,7 @@
         <v>0.73617752543618697</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2603</v>
       </c>
@@ -1618,7 +3248,7 @@
         <v>0.63225610039579305</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2633</v>
       </c>
@@ -1686,7 +3316,7 @@
         <v>0.3984552573249</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3596</v>
       </c>
@@ -1754,7 +3384,7 @@
         <v>0.623697165796955</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1215</v>
       </c>
@@ -1822,7 +3452,7 @@
         <v>0.66873274662036297</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1232</v>
       </c>
@@ -1890,7 +3520,7 @@
         <v>0.54717205894810095</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2345</v>
       </c>
@@ -1958,7 +3588,7 @@
         <v>0.71507705198181604</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2454</v>
       </c>
@@ -2026,7 +3656,7 @@
         <v>0.359152142812939</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2607</v>
       </c>
@@ -2094,7 +3724,7 @@
         <v>0.62549220782418402</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2634</v>
       </c>
@@ -2162,7 +3792,7 @@
         <v>0.62501824046086096</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3682</v>
       </c>
@@ -2230,7 +3860,7 @@
         <v>0.59812911543434499</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1216</v>
       </c>
@@ -2298,7 +3928,7 @@
         <v>0.52791039437561804</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1434</v>
       </c>
@@ -2366,7 +3996,7 @@
         <v>0.71288625816516304</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2379</v>
       </c>
@@ -2434,7 +4064,7 @@
         <v>0.55232199281588301</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2455</v>
       </c>
@@ -2502,7 +4132,7 @@
         <v>0.67907417537617798</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2609</v>
       </c>
@@ -2570,7 +4200,7 @@
         <v>0.67613611972126797</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2637</v>
       </c>
@@ -2638,7 +4268,7 @@
         <v>0.38001440853429902</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4904</v>
       </c>
@@ -2706,7 +4336,7 @@
         <v>0.411107499533231</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1218</v>
       </c>
@@ -2774,7 +4404,7 @@
         <v>0.61481040446448998</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1702</v>
       </c>
@@ -2842,7 +4472,7 @@
         <v>0.71847395901442701</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2408</v>
       </c>
@@ -2910,7 +4540,7 @@
         <v>0.50301465251489497</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2459</v>
       </c>
@@ -2978,7 +4608,7 @@
         <v>0.63253632472817201</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2610</v>
       </c>
@@ -3046,7 +4676,7 @@
         <v>0.66873274662036297</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3034</v>
       </c>
@@ -3114,7 +4744,7 @@
         <v>0.68185355606818399</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5388</v>
       </c>
@@ -3182,7 +4812,7 @@
         <v>0.72943832288161203</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1227</v>
       </c>
@@ -3250,7 +4880,7 @@
         <v>0.49367800580492399</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2330</v>
       </c>
@@ -3318,7 +4948,7 @@
         <v>0.671400724032303</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2412</v>
       </c>
@@ -3386,7 +5016,7 @@
         <v>0.39447909491758698</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2468</v>
       </c>
@@ -3454,7 +5084,7 @@
         <v>0.54882743375669596</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2615</v>
       </c>
@@ -3522,7 +5152,7 @@
         <v>0.76718754995181104</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3035</v>
       </c>
@@ -3590,7 +5220,7 @@
         <v>0.60737039637812096</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1229</v>
       </c>
@@ -3658,7 +5288,7 @@
         <v>0.63839523818087296</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2337</v>
       </c>
@@ -3726,7 +5356,7 @@
         <v>0.60093440831744105</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2439</v>
       </c>
@@ -3794,7 +5424,7 @@
         <v>0.56286864621416499</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2498</v>
       </c>
@@ -3862,7 +5492,7 @@
         <v>0.67291878407095995</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2618</v>
       </c>
@@ -3930,7 +5560,7 @@
         <v>0.61437031672968401</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3045</v>
       </c>
@@ -3998,7 +5628,7 @@
         <v>0.57201401768650195</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -4095,7 +5725,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -4192,7 +5822,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -4289,7 +5919,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -4386,7 +6016,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -4483,7 +6113,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -4583,20 +6213,21 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_boost!A$1</f>
         <v>StockName</v>
@@ -4694,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_boost!A$31</f>
         <v>2330</v>
@@ -4792,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_boost!A$12</f>
         <v>2454</v>
@@ -4890,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_boost!A$28</f>
         <v>3034</v>
@@ -4988,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_boost!A$18</f>
         <v>2379</v>
@@ -5086,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_boost!A$25</f>
         <v>2408</v>
@@ -5184,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_boost!A$4</f>
         <v>2344</v>
@@ -5282,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_boost!A$37</f>
         <v>2337</v>
@@ -5380,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_boost!A$35</f>
         <v>3035</v>
@@ -5478,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_boost!A$5</f>
         <v>2449</v>
@@ -5576,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_boost!A$33</f>
         <v>2468</v>
@@ -5674,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -5771,7 +7402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -5868,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -5965,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -6062,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -6159,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -6263,16 +7894,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_boost!A$1</f>
         <v>StockName</v>
@@ -6370,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_boost!A$16</f>
         <v>1216</v>
@@ -6468,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_boost!A$36</f>
         <v>1229</v>
@@ -6566,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_boost!A$17</f>
         <v>1434</v>
@@ -6664,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_boost!A$30</f>
         <v>1227</v>
@@ -6762,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_boost!A$2</f>
         <v>1210</v>
@@ -6860,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_boost!A$10</f>
         <v>1232</v>
@@ -6958,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_boost!A$9</f>
         <v>1215</v>
@@ -7056,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_boost!A$3</f>
         <v>1231</v>
@@ -7154,7 +8785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_boost!A$23</f>
         <v>1218</v>
@@ -7252,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_boost!A$24</f>
         <v>1702</v>
@@ -7350,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -7447,7 +9078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -7544,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -7641,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -7738,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -7835,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -7939,16 +9570,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_boost!A$1</f>
         <v>StockName</v>
@@ -8046,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_boost!A$6</f>
         <v>2603</v>
@@ -8144,7 +9775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_boost!A$20</f>
         <v>2609</v>
@@ -8242,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_boost!A$34</f>
         <v>2615</v>
@@ -8340,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_boost!A$40</f>
         <v>2618</v>
@@ -8438,7 +10069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_boost!A$27</f>
         <v>2610</v>
@@ -8536,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_boost!A$21</f>
         <v>2637</v>
@@ -8634,7 +10265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_boost!A$7</f>
         <v>2633</v>
@@ -8732,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_boost!A$26</f>
         <v>2459</v>
@@ -8830,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_boost!A$13</f>
         <v>2607</v>
@@ -8928,7 +10559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_boost!A$14</f>
         <v>2634</v>
@@ -9026,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -9123,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -9220,7 +10851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -9317,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -9414,7 +11045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -9511,7 +11142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -9615,16 +11246,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_boost!A$1</f>
         <v>StockName</v>
@@ -9722,7 +11353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_boost!A$32</f>
         <v>2412</v>
@@ -9820,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_boost!A$41</f>
         <v>3045</v>
@@ -9918,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_boost!A$22</f>
         <v>4904</v>
@@ -10016,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_boost!A$11</f>
         <v>2345</v>
@@ -10114,7 +11745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_boost!A$39</f>
         <v>2498</v>
@@ -10212,7 +11843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_boost!A$8</f>
         <v>3596</v>
@@ -10310,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_boost!A$15</f>
         <v>3682</v>
@@ -10408,7 +12039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_boost!A$29</f>
         <v>5388</v>
@@ -10506,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_boost!A$19</f>
         <v>2455</v>
@@ -10604,7 +12235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_boost!A$38</f>
         <v>2439</v>
@@ -10702,7 +12333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -10799,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -10896,7 +12527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -10993,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -11090,7 +12721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -11187,7 +12818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -11291,428 +12922,428 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F30"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <f>precisionRate_boost!B42</f>
         <v>0.471204188481675</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <f>precisionRate_boost!C42</f>
         <v>0.6</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <f>precisionRate_boost!G42</f>
         <v>0.480916030534351</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f>precisionRate_boost!H42</f>
         <v>0.42613636363636298</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <f>precisionRate_boost!E42</f>
         <v>0.67537592229382604</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <f>precisionRate_boost!V42</f>
         <v>0.359152142812939</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>半導體!$B$12</f>
         <v>0.57364341085271298</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f>半導體!$B$13</f>
         <v>0.72927807486630969</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>半導體!$B$14</f>
         <v>0.78006993006992953</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f>半導體!$B$15</f>
         <v>0.81888700624801425</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>半導體!$B$16</f>
         <v>0.85393258426966201</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f>precisionRate_boost!B43</f>
         <v>0.70740665584415519</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <f>precisionRate_boost!C43</f>
         <v>0.81926854484362877</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f>precisionRate_boost!G43</f>
         <v>0.75601160862354866</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f>precisionRate_boost!H43</f>
         <v>0.76474448168996223</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <f>precisionRate_boost!E43</f>
         <v>0.77618934674977402</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <f>precisionRate_boost!V43</f>
         <v>0.5514483530510863</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>食品!$B$12</f>
         <v>0.66129032258064502</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f>食品!$B$13</f>
         <v>0.70663555194805183</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>食品!$B$14</f>
         <v>0.75470028754700258</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>食品!$B$15</f>
         <v>0.84408033826638429</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>食品!$B$16</f>
         <v>0.93023255813953398</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f>precisionRate_boost!B44</f>
         <v>0.77350427350427298</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <f>precisionRate_boost!C44</f>
         <v>0.84997655883731749</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f>precisionRate_boost!G44</f>
         <v>0.82438059011000298</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f>precisionRate_boost!H44</f>
         <v>0.82296367934665748</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f>precisionRate_boost!E44</f>
         <v>0.80997506215231541</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <f>precisionRate_boost!V44</f>
         <v>0.62435770312890804</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>航運!$B$12</f>
         <v>0.471204188481675</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>航運!$B$13</f>
         <v>0.68994522691705773</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>航運!$B$14</f>
         <v>0.73007907542579054</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f>航運!$B$15</f>
         <v>0.76714046822742454</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>航運!$B$16</f>
         <v>0.81666666666666599</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f>precisionRate_boost!B45</f>
         <v>0.82086603369738198</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <f>precisionRate_boost!C45</f>
         <v>0.90170441927603773</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f>precisionRate_boost!G45</f>
         <v>0.87288135593220295</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>precisionRate_boost!H45</f>
         <v>0.87991286614757103</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f>precisionRate_boost!E45</f>
         <v>0.83589011952098302</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <f>precisionRate_boost!V45</f>
         <v>0.67372311798353701</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <f>通訊!$B$12</f>
         <v>0.679245283018867</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f>通訊!$B$13</f>
         <v>0.78018372703411998</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f>通訊!$B$14</f>
         <v>0.81013603185135996</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f>通訊!$B$15</f>
         <v>0.84219895287958058</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f>通訊!$B$16</f>
         <v>0.88636363636363602</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f>precisionRate_boost!B46</f>
         <v>0.93023255813953398</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f>precisionRate_boost!C46</f>
         <v>0.93714285714285706</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f>precisionRate_boost!G46</f>
         <v>0.9375</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f>precisionRate_boost!H46</f>
         <v>0.93532338308457696</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <f>precisionRate_boost!E46</f>
         <v>0.87690476190476097</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <f>precisionRate_boost!V46</f>
         <v>0.76718754995181104</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>半導體!$C$12</f>
         <v>0.69268292682926802</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <f>半導體!$C$13</f>
         <v>0.81524732279449252</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f>半導體!$C$14</f>
         <v>0.84745058960305553</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f>半導體!$C$15</f>
         <v>0.87835358862646151</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f>半導體!$C$16</f>
         <v>0.929729729729729</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>食品!$C$12</f>
         <v>0.6</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <f>食品!$C$13</f>
         <v>0.82588652482269476</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>食品!$C$14</f>
         <v>0.86011530785719548</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f>食品!$C$15</f>
         <v>0.89583333333333304</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f>食品!$C$16</f>
         <v>0.93209876543209802</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>航運!$C$12</f>
         <v>0.69642857142857095</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <f>航運!$C$13</f>
         <v>0.85966126086234507</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>航運!$C$14</f>
         <v>0.91549460853258258</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f>航運!$C$15</f>
         <v>0.931517623846851</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f>航運!$C$16</f>
         <v>0.93714285714285706</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <f>通訊!$C$12</f>
         <v>0.679245283018867</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f>通訊!$C$13</f>
         <v>0.74132453567937406</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f>通訊!$C$14</f>
         <v>0.83217102532171006</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f>通訊!$C$15</f>
         <v>0.84590682515337368</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f>通訊!$C$16</f>
         <v>0.87218045112781895</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>32</v>
       </c>
@@ -11722,125 +13353,125 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>半導體!$G$12</f>
         <v>0.54676258992805704</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <f>半導體!$G$13</f>
         <v>0.67857142857142794</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f>半導體!$G$14</f>
         <v>0.76424501424501401</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f>半導體!$G$15</f>
         <v>0.81736435683804076</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f>半導體!$G$16</f>
         <v>0.934306569343065</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>食品!$G$12</f>
         <v>0.62011173184357504</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <f>食品!$G$13</f>
         <v>0.81104308923946244</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>食品!$G$14</f>
         <v>0.82702020202020154</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f>食品!$G$15</f>
         <v>0.85833333333333273</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f>食品!$G$16</f>
         <v>0.89108910891089099</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f>航運!$G$12</f>
         <v>0.73684210526315697</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <f>航運!$G$13</f>
         <v>0.78642476884281276</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f>航運!$G$14</f>
         <v>0.87914901129943446</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f>航運!$G$15</f>
         <v>0.90839896078590554</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f>航運!$G$16</f>
         <v>0.9375</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <f>通訊!$G$12</f>
         <v>0.480916030534351</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <f>通訊!$G$13</f>
         <v>0.75593723494486775</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f>通訊!$G$14</f>
         <v>0.81581798483206902</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <f>通訊!$G$15</f>
         <v>0.84173069535151701</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f>通訊!$G$16</f>
         <v>0.88983050847457601</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
@@ -11850,125 +13481,125 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <f>半導體!$H$12</f>
         <v>0.64968152866242002</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <f>半導體!$H$13</f>
         <v>0.79538002980625844</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f>半導體!$H$14</f>
         <v>0.85255636070853402</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f>半導體!$H$15</f>
         <v>0.90233100233100227</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f>半導體!$H$16</f>
         <v>0.93532338308457696</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <f>食品!$H$12</f>
         <v>0.70253164556962</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <f>食品!$H$13</f>
         <v>0.78019145802650902</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f>食品!$H$14</f>
         <v>0.81038755079789848</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <f>食品!$H$15</f>
         <v>0.86885775862068948</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f>食品!$H$16</f>
         <v>0.934782608695652</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <f>航運!$H$12</f>
         <v>0.42613636363636298</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <f>航運!$H$13</f>
         <v>0.71137362637362567</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <f>航運!$H$14</f>
         <v>0.79570737957947446</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <f>航運!$H$15</f>
         <v>0.85126262626262572</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f>航運!$H$16</f>
         <v>0.89</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <f>通訊!$H$12</f>
         <v>0.68965517241379304</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <f>通訊!$H$13</f>
         <v>0.80365788058095733</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <f>通訊!$H$14</f>
         <v>0.82536025658399903</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <f>通訊!$H$15</f>
         <v>0.86768569381418625</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <f>通訊!$H$16</f>
         <v>0.90196078431372495</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
@@ -11978,120 +13609,120 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <f>半導體!$D$12</f>
         <v>0.68813559322033901</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <f>半導體!$D$13</f>
         <v>0.77778162112302485</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <f>半導體!$D$14</f>
         <v>0.81328260117606344</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <f>半導體!$D$15</f>
         <v>0.83728813559322002</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <f>半導體!$D$16</f>
         <v>0.87796610169491496</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <f>食品!$D$12</f>
         <v>0.72203389830508402</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <f>食品!$D$13</f>
         <v>0.77711864406779596</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <f>食品!$D$14</f>
         <v>0.81355932203389747</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <f>食品!$D$15</f>
         <v>0.84584658992306327</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <f>食品!$D$16</f>
         <v>0.86101694915254201</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <f>航運!$D$12</f>
         <v>0.60661764705882304</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <f>航運!$D$13</f>
         <v>0.7940677966101688</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <f>航運!$D$14</f>
         <v>0.81541950113378658</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <f>航運!$D$15</f>
         <v>0.83898305084745672</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <f>航運!$D$16</f>
         <v>0.88813559322033897</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <f>通訊!$D$12</f>
         <v>0.706484641638225</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <f>通訊!$D$13</f>
         <v>0.79075342465753407</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <f>通訊!$D$14</f>
         <v>0.80921868540719255</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <f>通訊!$D$15</f>
         <v>0.84035651665692535</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <f>通訊!$D$16</f>
         <v>0.86440677966101698</v>
       </c>
@@ -12106,5 +13737,6 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/final report/precisionRate_boost.xlsx
+++ b/final report/precisionRate_boost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E7F37-D39D-4941-A7C1-C96D84EBF413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868892E0-00ED-9247-A80D-14FED0790245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="19780" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="19780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_boost" sheetId="1" r:id="rId1"/>
@@ -23,61 +23,92 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">precisionRate_boost!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_boost!$C$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_boost!$G$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_boost!$H$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">precisionRate_boost!$I$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">precisionRate_boost!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">半導體!$B$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">precisionRate_boost!$C$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">precisionRate_boost!$C$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">precisionRate_boost!$G$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">precisionRate_boost!$H$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">precisionRate_boost!$I$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">precisionRate_boost!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">半導體!$B$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">precisionRate_boost!$C$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">precisionRate_boost!$G$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">precisionRate_boost!$H$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">precisionRate_boost!$I$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">precisionRate_boost!$B$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">食品!$B$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">precisionRate_boost!$G$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">precisionRate_boost!$C$1</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">precisionRate_boost!$G$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">precisionRate_boost!$H$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">precisionRate_boost!$B$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">食品!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">食品!$C$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">食品!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">食品!$G$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">食品!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">食品!$H$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">食品!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">食品!$I$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">食品!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">航運!$B$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">precisionRate_boost!$C$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">precisionRate_boost!$G$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">precisionRate_boost!$H$1</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">航運!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">航運!$C$1</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">航運!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">航運!$G$1</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">航運!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">航運!$H$1</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">航運!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">航運!$I$1</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">航運!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">通訊!$B$1</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">precisionRate_boost!$H$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">通訊!$I$1</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">通訊!$B$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">通訊!$I$1</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">precisionRate_boost!$B$1</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_boost!$B$1</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">precisionRate_boost!$C$1</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">precisionRate_boost!$G$1</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">precisionRate_boost!$H$1</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">半導體!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -981,27 +1012,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.34</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.36</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.38</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1039,7 +1070,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5708D22C-2AF9-FD4A-81AB-834F7571D0EB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.29</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1052,7 +1083,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C93A764B-46FA-2843-AEBE-E8B8EFBAEDE9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.31</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1065,7 +1096,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F8F2EC4B-050C-7242-B1AF-3F7DDD0F5842}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.33</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1078,7 +1109,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B42A3685-F08D-2F4F-89F3-3FCF27138B43}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.35</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1091,6 +1122,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{09515F43-7185-C347-89B5-664AE2FB3815}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1122,27 +1154,630 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.51</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.53</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.55</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
+        <cx:f>_xlchart.v1.28</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Boosting_半導體</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Boosting_半導體</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{99E384DA-545C-A646-825D-B0FA9D6BCBAD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{EC57E23D-A1A6-C946-9F64-FACFD3C9C61F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DB32C51F-1034-A44F-B3E8-59FADF91D125}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.23</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{18F0B50A-E867-8F47-9615-B41C786A9656}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.25</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F1BB8FE2-5AED-1145-8E95-45AB13B56624}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.5"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.40</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.42</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.44</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.46</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.48</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Boosting_食品</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{6A9B23A4-50A2-F74B-8200-FD19C6F2A2DB}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.39</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{86B21360-AC62-8B40-B35A-9068F273DB2D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.41</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D61A885B-3726-8E4B-94B0-931170326536}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.43</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{FB99E44F-B66C-2B41-936E-323F7409AD5A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.45</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B448C508-85B3-1D46-AE29-288C5AA6518D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.5"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.50</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.52</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.54</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
         <cx:f>_xlchart.v1.56</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.58</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Boosting_航運</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{F9E9B2B0-FBA9-B947-8FC7-127841825908}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.49</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{6CD8FEEA-BB7A-1948-ACDD-BCEB63868A49}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.51</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{29A88681-5F5F-3A4F-9B7C-2F5780AF257D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.53</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{906E57A0-CE45-324A-9782-5205AE32D549}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.55</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{075DA948-7107-BF4F-B120-303FF8DBDD45}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.5"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.70</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.72</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.74</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.76</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.78</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Boosting_通訊</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{1A470BE9-B17F-9C4B-A29E-1862A45A90D1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.69</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{8A31768D-CB57-F549-9DDE-F3808870ADA6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.71</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4151E3C9-F6FF-194D-8DBD-02BB4E89FC86}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.73</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D4305266-A138-9441-BB64-68B85E76965B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.75</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7FB8F1F2-7425-2645-8EC2-A29DB71B26B4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.40000000000000002"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.80</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.82</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.84</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.86</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.87</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1180,7 +1815,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5708D22C-2AF9-FD4A-81AB-834F7571D0EB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:f>_xlchart.v1.79</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1193,7 +1828,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C93A764B-46FA-2843-AEBE-E8B8EFBAEDE9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.50</cx:f>
+              <cx:f>_xlchart.v1.81</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1206,7 +1841,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F8F2EC4B-050C-7242-B1AF-3F7DDD0F5842}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.52</cx:f>
+              <cx:f>_xlchart.v1.83</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1219,7 +1854,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B42A3685-F08D-2F4F-89F3-3FCF27138B43}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.54</cx:f>
+              <cx:f>_xlchart.v1.85</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1339,6 +1974,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -1855,6 +2650,2066 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2453,6 +5308,338 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9202D7-8475-B448-6165-A6EA0C201925}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5060950" y="5372100"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87819101-DF5A-26FD-53BE-34549AB75905}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5060950" y="5372100"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A62945-BE8A-48E3-A81B-E51DA3F99B7C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5060950" y="5372100"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89997A68-52C2-A988-BEAA-D953543FD2CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5060950" y="5372100"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6222,7 +9409,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7890,6 +11077,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7898,7 +11086,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9566,6 +12754,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9574,7 +12763,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11242,6 +14431,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11249,8 +14439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12918,6 +16108,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12925,7 +16116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>

--- a/final report/precisionRate_boost.xlsx
+++ b/final report/precisionRate_boost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\中正\大數據與資料分析\uki-uki-diasuki\final report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868892E0-00ED-9247-A80D-14FED0790245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215BDD10-F31E-4340-B191-DCBF12A9BAAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="19780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="19785" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_boost" sheetId="1" r:id="rId1"/>
@@ -23,92 +23,67 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">precisionRate_boost!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_boost!$C$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_boost!$G$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_boost!$H$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">半導體!$B$2:$B$11</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">precisionRate_boost!$C$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">食品!$B$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">食品!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">食品!$C$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">食品!$B$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">食品!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">食品!$G$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">食品!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">食品!$H$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">食品!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">食品!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">航運!$B$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">航運!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">航運!$C$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">航運!$C$2:$C$11</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">precisionRate_boost!$G$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">食品!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">食品!$C$1</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">食品!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">食品!$G$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">食品!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">食品!$H$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">食品!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">食品!$I$1</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">食品!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">航運!$B$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">航運!$G$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">航運!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">航運!$H$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">航運!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">航運!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">通訊!$G$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">航運!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">航運!$C$1</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">航運!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">航運!$G$1</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">航運!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">航運!$H$1</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">航運!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">航運!$I$1</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">航運!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">precisionRate_boost!$B$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">precisionRate_boost!$C$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">precisionRate_boost!$G$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">precisionRate_boost!$H$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">通訊!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">通訊!$C$1</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">通訊!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">通訊!$G$1</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">通訊!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">通訊!$H$1</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">通訊!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">通訊!$I$1</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">通訊!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">precisionRate_boost!$H$1</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">通訊!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">通訊!$C$1</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">通訊!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">通訊!$G$1</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">通訊!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">通訊!$H$1</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">通訊!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">通訊!$I$1</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">通訊!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">precisionRate_boost!$B$1</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">precisionRate_boost!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">precisionRate_boost!$C$1</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">precisionRate_boost!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">precisionRate_boost!$G$1</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">precisionRate_boost!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">precisionRate_boost!$H$1</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">precisionRate_boost!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">precisionRate_boost!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_boost!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -118,8 +93,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -291,7 +266,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -299,7 +274,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -307,7 +282,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -316,7 +291,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -325,7 +300,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -334,7 +309,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -342,7 +317,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -350,7 +325,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -358,7 +333,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -366,7 +341,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -375,7 +350,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -384,7 +359,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -392,7 +367,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -401,7 +376,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -409,7 +384,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -418,7 +393,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -427,7 +402,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -435,14 +410,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -450,7 +425,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1E1E1E"/>
-      <name val="Calibri Light"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -951,48 +926,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1007,32 +982,694 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>boosting</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>半導體</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.68813559322033901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77778162112302485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81328260117606344</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83728813559322002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87796610169491496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C38-4666-8DC1-EA54737A9FAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>食品</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72203389830508402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77711864406779596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81355932203389747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84584658992306327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86101694915254201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C38-4666-8DC1-EA54737A9FAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>航運</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.60661764705882304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7940677966101688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81541950113378658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83898305084745672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88813559322033897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C38-4666-8DC1-EA54737A9FAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>通訊</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.706484641638225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79075342465753407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80921868540719255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84035651665692535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86440677966101698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1C38-4666-8DC1-EA54737A9FAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="393717648"/>
+        <c:axId val="390873376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="393717648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390873376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="390873376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393717648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1070,7 +1707,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5708D22C-2AF9-FD4A-81AB-834F7571D0EB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1083,7 +1720,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C93A764B-46FA-2843-AEBE-E8B8EFBAEDE9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.11</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1096,7 +1733,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F8F2EC4B-050C-7242-B1AF-3F7DDD0F5842}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1109,7 +1746,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B42A3685-F08D-2F4F-89F3-3FCF27138B43}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1134,7 +1771,7 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="1.5"/>
+        <cx:catScaling gapWidth="0.200000003"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
@@ -1154,27 +1791,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1212,7 +1849,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{99E384DA-545C-A646-825D-B0FA9D6BCBAD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1225,7 +1862,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EC57E23D-A1A6-C946-9F64-FACFD3C9C61F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1238,7 +1875,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DB32C51F-1034-A44F-B3E8-59FADF91D125}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.23</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1251,7 +1888,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{18F0B50A-E867-8F47-9615-B41C786A9656}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.25</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1264,6 +1901,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F1BB8FE2-5AED-1145-8E95-45AB13B56624}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1295,27 +1933,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.40</cx:f>
+        <cx:f>_xlchart.v1.28</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.42</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.32</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.46</cx:f>
+        <cx:f>_xlchart.v1.34</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.48</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1366,7 +2004,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6A9B23A4-50A2-F74B-8200-FD19C6F2A2DB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.39</cx:f>
+              <cx:f>_xlchart.v1.27</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1379,7 +2017,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{86B21360-AC62-8B40-B35A-9068F273DB2D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.41</cx:f>
+              <cx:f>_xlchart.v1.29</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1392,7 +2030,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D61A885B-3726-8E4B-94B0-931170326536}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.43</cx:f>
+              <cx:f>_xlchart.v1.31</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1405,7 +2043,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FB99E44F-B66C-2B41-936E-323F7409AD5A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.45</cx:f>
+              <cx:f>_xlchart.v1.33</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1418,6 +2056,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B448C508-85B3-1D46-AE29-288C5AA6518D}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1449,27 +2088,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.50</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.52</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.54</cx:f>
+        <cx:f>_xlchart.v1.41</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.56</cx:f>
+        <cx:f>_xlchart.v1.43</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.58</cx:f>
+        <cx:f>_xlchart.v1.44</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1520,7 +2159,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F9E9B2B0-FBA9-B947-8FC7-127841825908}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.49</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1533,7 +2172,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6CD8FEEA-BB7A-1948-ACDD-BCEB63868A49}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.51</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1546,7 +2185,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{29A88681-5F5F-3A4F-9B7C-2F5780AF257D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.53</cx:f>
+              <cx:f>_xlchart.v1.40</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1559,7 +2198,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{906E57A0-CE45-324A-9782-5205AE32D549}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.55</cx:f>
+              <cx:f>_xlchart.v1.42</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1572,6 +2211,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{075DA948-7107-BF4F-B120-303FF8DBDD45}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1603,27 +2243,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.70</cx:f>
+        <cx:f>_xlchart.v1.46</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.72</cx:f>
+        <cx:f>_xlchart.v1.48</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.74</cx:f>
+        <cx:f>_xlchart.v1.50</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.76</cx:f>
+        <cx:f>_xlchart.v1.52</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.78</cx:f>
+        <cx:f>_xlchart.v1.53</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1674,7 +2314,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1A470BE9-B17F-9C4B-A29E-1862A45A90D1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.69</cx:f>
+              <cx:f>_xlchart.v1.45</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1687,7 +2327,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8A31768D-CB57-F549-9DDE-F3808870ADA6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.71</cx:f>
+              <cx:f>_xlchart.v1.47</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1700,7 +2340,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4151E3C9-F6FF-194D-8DBD-02BB4E89FC86}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.73</cx:f>
+              <cx:f>_xlchart.v1.49</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1713,7 +2353,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D4305266-A138-9441-BB64-68B85E76965B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.75</cx:f>
+              <cx:f>_xlchart.v1.51</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1726,6 +2366,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7FB8F1F2-7425-2645-8EC2-A29DB71B26B4}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1757,27 +2398,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.80</cx:f>
+        <cx:f>_xlchart.v1.55</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.82</cx:f>
+        <cx:f>_xlchart.v1.57</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.84</cx:f>
+        <cx:f>_xlchart.v1.59</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.86</cx:f>
+        <cx:f>_xlchart.v1.61</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.87</cx:f>
+        <cx:f>_xlchart.v1.62</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1815,7 +2456,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5708D22C-2AF9-FD4A-81AB-834F7571D0EB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.79</cx:f>
+              <cx:f>_xlchart.v1.54</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1828,7 +2469,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C93A764B-46FA-2843-AEBE-E8B8EFBAEDE9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.81</cx:f>
+              <cx:f>_xlchart.v1.56</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1841,7 +2482,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F8F2EC4B-050C-7242-B1AF-3F7DDD0F5842}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.83</cx:f>
+              <cx:f>_xlchart.v1.58</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1854,7 +2495,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B42A3685-F08D-2F4F-89F3-3FCF27138B43}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.85</cx:f>
+              <cx:f>_xlchart.v1.60</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2134,6 +2775,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -5224,20 +5905,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -5273,8 +6470,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6711950" y="3403600"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="6007100" y="10182225"/>
+              <a:ext cx="4594225" cy="2832100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5293,9 +6490,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5356,8 +6553,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5060950" y="5372100"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5083175" y="5537200"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5376,9 +6573,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5439,8 +6636,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5060950" y="5372100"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5083175" y="5537200"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5459,9 +6656,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5522,8 +6719,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5060950" y="5372100"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5083175" y="5537200"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5542,9 +6739,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5605,8 +6802,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5060950" y="5372100"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5083175" y="5537200"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5625,9 +6822,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5688,8 +6885,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5422900" y="2628900"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5448300" y="2705100"/>
+              <a:ext cx="4591050" cy="2832100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5708,9 +6905,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5719,11 +6916,47 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>513617</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>84625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>351692</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2D95CB-02C8-4D9E-894D-917603588CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6021,13 +7254,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" activeCellId="4" sqref="B1:B41 C1:C41 G1:G41 H1:H41 I1:I41"/>
+    <sheetView topLeftCell="D42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6095,7 +7328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1210</v>
       </c>
@@ -6163,7 +7396,7 @@
         <v>0.70196025937486395</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1231</v>
       </c>
@@ -6231,7 +7464,7 @@
         <v>0.58735823891283701</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2344</v>
       </c>
@@ -6299,7 +7532,7 @@
         <v>0.65763122963767395</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2449</v>
       </c>
@@ -6367,7 +7600,7 @@
         <v>0.73617752543618697</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2603</v>
       </c>
@@ -6435,7 +7668,7 @@
         <v>0.63225610039579305</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2633</v>
       </c>
@@ -6503,7 +7736,7 @@
         <v>0.3984552573249</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3596</v>
       </c>
@@ -6571,7 +7804,7 @@
         <v>0.623697165796955</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1215</v>
       </c>
@@ -6639,7 +7872,7 @@
         <v>0.66873274662036297</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1232</v>
       </c>
@@ -6707,7 +7940,7 @@
         <v>0.54717205894810095</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2345</v>
       </c>
@@ -6775,7 +8008,7 @@
         <v>0.71507705198181604</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2454</v>
       </c>
@@ -6843,7 +8076,7 @@
         <v>0.359152142812939</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2607</v>
       </c>
@@ -6911,7 +8144,7 @@
         <v>0.62549220782418402</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2634</v>
       </c>
@@ -6979,7 +8212,7 @@
         <v>0.62501824046086096</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3682</v>
       </c>
@@ -7047,7 +8280,7 @@
         <v>0.59812911543434499</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1216</v>
       </c>
@@ -7115,7 +8348,7 @@
         <v>0.52791039437561804</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1434</v>
       </c>
@@ -7183,7 +8416,7 @@
         <v>0.71288625816516304</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2379</v>
       </c>
@@ -7251,7 +8484,7 @@
         <v>0.55232199281588301</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2455</v>
       </c>
@@ -7319,7 +8552,7 @@
         <v>0.67907417537617798</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2609</v>
       </c>
@@ -7387,7 +8620,7 @@
         <v>0.67613611972126797</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2637</v>
       </c>
@@ -7455,7 +8688,7 @@
         <v>0.38001440853429902</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4904</v>
       </c>
@@ -7523,7 +8756,7 @@
         <v>0.411107499533231</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1218</v>
       </c>
@@ -7591,7 +8824,7 @@
         <v>0.61481040446448998</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1702</v>
       </c>
@@ -7659,7 +8892,7 @@
         <v>0.71847395901442701</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2408</v>
       </c>
@@ -7727,7 +8960,7 @@
         <v>0.50301465251489497</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2459</v>
       </c>
@@ -7795,7 +9028,7 @@
         <v>0.63253632472817201</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2610</v>
       </c>
@@ -7863,7 +9096,7 @@
         <v>0.66873274662036297</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3034</v>
       </c>
@@ -7931,7 +9164,7 @@
         <v>0.68185355606818399</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5388</v>
       </c>
@@ -7999,7 +9232,7 @@
         <v>0.72943832288161203</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1227</v>
       </c>
@@ -8067,7 +9300,7 @@
         <v>0.49367800580492399</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2330</v>
       </c>
@@ -8135,7 +9368,7 @@
         <v>0.671400724032303</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2412</v>
       </c>
@@ -8203,7 +9436,7 @@
         <v>0.39447909491758698</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2468</v>
       </c>
@@ -8271,7 +9504,7 @@
         <v>0.54882743375669596</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2615</v>
       </c>
@@ -8339,7 +9572,7 @@
         <v>0.76718754995181104</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3035</v>
       </c>
@@ -8407,7 +9640,7 @@
         <v>0.60737039637812096</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1229</v>
       </c>
@@ -8475,7 +9708,7 @@
         <v>0.63839523818087296</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2337</v>
       </c>
@@ -8543,7 +9776,7 @@
         <v>0.60093440831744105</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2439</v>
       </c>
@@ -8611,7 +9844,7 @@
         <v>0.56286864621416499</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2498</v>
       </c>
@@ -8679,7 +9912,7 @@
         <v>0.67291878407095995</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2618</v>
       </c>
@@ -8747,7 +9980,7 @@
         <v>0.61437031672968401</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3045</v>
       </c>
@@ -8815,7 +10048,7 @@
         <v>0.57201401768650195</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -8912,7 +10145,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -9009,7 +10242,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -9106,7 +10339,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -9203,7 +10436,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -9300,7 +10533,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -9412,9 +10645,9 @@
       <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_boost!A$1</f>
         <v>StockName</v>
@@ -9512,7 +10745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_boost!A$31</f>
         <v>2330</v>
@@ -9610,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_boost!A$12</f>
         <v>2454</v>
@@ -9708,7 +10941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_boost!A$28</f>
         <v>3034</v>
@@ -9806,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_boost!A$18</f>
         <v>2379</v>
@@ -9904,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_boost!A$25</f>
         <v>2408</v>
@@ -10002,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_boost!A$4</f>
         <v>2344</v>
@@ -10100,7 +11333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_boost!A$37</f>
         <v>2337</v>
@@ -10198,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_boost!A$35</f>
         <v>3035</v>
@@ -10296,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_boost!A$5</f>
         <v>2449</v>
@@ -10394,7 +11627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_boost!A$33</f>
         <v>2468</v>
@@ -10492,7 +11725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -10589,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -10686,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -10783,7 +12016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -10880,7 +12113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -10977,7 +12210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -11089,9 +12322,9 @@
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_boost!A$1</f>
         <v>StockName</v>
@@ -11189,7 +12422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_boost!A$16</f>
         <v>1216</v>
@@ -11287,7 +12520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_boost!A$36</f>
         <v>1229</v>
@@ -11385,7 +12618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_boost!A$17</f>
         <v>1434</v>
@@ -11483,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_boost!A$30</f>
         <v>1227</v>
@@ -11581,7 +12814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_boost!A$2</f>
         <v>1210</v>
@@ -11679,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_boost!A$10</f>
         <v>1232</v>
@@ -11777,7 +13010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_boost!A$9</f>
         <v>1215</v>
@@ -11875,7 +13108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_boost!A$3</f>
         <v>1231</v>
@@ -11973,7 +13206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_boost!A$23</f>
         <v>1218</v>
@@ -12071,7 +13304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_boost!A$24</f>
         <v>1702</v>
@@ -12169,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -12266,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -12363,7 +13596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -12460,7 +13693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -12557,7 +13790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -12654,7 +13887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -12766,9 +13999,9 @@
       <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_boost!A$1</f>
         <v>StockName</v>
@@ -12866,7 +14099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_boost!A$6</f>
         <v>2603</v>
@@ -12964,7 +14197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_boost!A$20</f>
         <v>2609</v>
@@ -13062,7 +14295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_boost!A$34</f>
         <v>2615</v>
@@ -13160,7 +14393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_boost!A$40</f>
         <v>2618</v>
@@ -13258,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_boost!A$27</f>
         <v>2610</v>
@@ -13356,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_boost!A$21</f>
         <v>2637</v>
@@ -13454,7 +14687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_boost!A$7</f>
         <v>2633</v>
@@ -13552,7 +14785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_boost!A$26</f>
         <v>2459</v>
@@ -13650,7 +14883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_boost!A$13</f>
         <v>2607</v>
@@ -13748,7 +14981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_boost!A$14</f>
         <v>2634</v>
@@ -13846,7 +15079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -13943,7 +15176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -14040,7 +15273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -14137,7 +15370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -14234,7 +15467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -14331,7 +15564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -14439,13 +15672,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_boost!A$1</f>
         <v>StockName</v>
@@ -14543,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_boost!A$32</f>
         <v>2412</v>
@@ -14641,7 +15874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_boost!A$41</f>
         <v>3045</v>
@@ -14739,7 +15972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_boost!A$22</f>
         <v>4904</v>
@@ -14837,7 +16070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_boost!A$11</f>
         <v>2345</v>
@@ -14935,7 +16168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_boost!A$39</f>
         <v>2498</v>
@@ -15033,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_boost!A$8</f>
         <v>3596</v>
@@ -15131,7 +16364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_boost!A$15</f>
         <v>3682</v>
@@ -15229,7 +16462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_boost!A$29</f>
         <v>5388</v>
@@ -15327,7 +16560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_boost!A$19</f>
         <v>2455</v>
@@ -15425,7 +16658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_boost!A$38</f>
         <v>2439</v>
@@ -15523,7 +16756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -15620,7 +16853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -15717,7 +16950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -15814,7 +17047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -15911,7 +17144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -16008,7 +17241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -16116,13 +17349,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -16151,7 +17384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>36</v>
@@ -16196,7 +17429,7 @@
         <v>0.359152142812939</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -16248,7 +17481,7 @@
         <v>0.5514483530510863</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -16300,7 +17533,7 @@
         <v>0.62435770312890804</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -16352,7 +17585,7 @@
         <v>0.67372311798353701</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
@@ -16404,7 +17637,7 @@
         <v>0.76718754995181104</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
@@ -16416,7 +17649,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>36</v>
@@ -16434,7 +17667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -16459,7 +17692,7 @@
         <v>0.929729729729729</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
@@ -16484,7 +17717,7 @@
         <v>0.93209876543209802</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
@@ -16509,7 +17742,7 @@
         <v>0.93714285714285706</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -16534,7 +17767,7 @@
         <v>0.87218045112781895</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>32</v>
       </c>
@@ -16544,7 +17777,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>36</v>
@@ -16562,7 +17795,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -16587,7 +17820,7 @@
         <v>0.934306569343065</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -16612,7 +17845,7 @@
         <v>0.89108910891089099</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -16637,7 +17870,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -16662,7 +17895,7 @@
         <v>0.88983050847457601</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
@@ -16672,7 +17905,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>36</v>
@@ -16690,7 +17923,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -16715,7 +17948,7 @@
         <v>0.93532338308457696</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
@@ -16740,7 +17973,7 @@
         <v>0.934782608695652</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
@@ -16765,7 +17998,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -16790,7 +18023,7 @@
         <v>0.90196078431372495</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
@@ -16800,7 +18033,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>36</v>
@@ -16818,7 +18051,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
@@ -16843,7 +18076,7 @@
         <v>0.87796610169491496</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
@@ -16868,7 +18101,7 @@
         <v>0.86101694915254201</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
@@ -16893,7 +18126,7 @@
         <v>0.88813559322033897</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>42</v>
       </c>
